--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21721" windowHeight="9718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -671,22 +671,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4:G23"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.86328125" style="1"/>
+    <col min="8" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -694,7 +693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -737,7 +736,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.85" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -755,14 +754,16 @@
       <c r="G4" s="16">
         <v>42110.802083333336</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -778,14 +779,16 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="9"/>
       <c r="L5" s="15"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -801,14 +804,16 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="9"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -824,14 +829,16 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -847,14 +854,16 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="9"/>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -870,14 +879,16 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -893,14 +904,16 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="9"/>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -916,14 +929,16 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="9"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -939,14 +954,16 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="9"/>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -962,14 +979,16 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -985,14 +1004,16 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1008,14 +1029,16 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="9"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1031,14 +1054,16 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1054,14 +1079,16 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1077,14 +1104,16 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="9"/>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1100,14 +1129,16 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="9"/>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1123,14 +1154,16 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="9"/>
       <c r="L20" s="15"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1146,14 +1179,16 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="15"/>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1169,14 +1204,16 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="9"/>
       <c r="L22" s="15"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1229,9 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13">
+        <v>42110.854166666664</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -671,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,9 @@
       <c r="H5" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="9"/>
       <c r="L5" s="15"/>
@@ -807,7 +809,9 @@
       <c r="H6" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="9"/>
       <c r="L6" s="15"/>
@@ -832,7 +836,9 @@
       <c r="H7" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="15"/>
@@ -857,7 +863,9 @@
       <c r="H8" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="9"/>
       <c r="L8" s="15"/>
@@ -882,7 +890,9 @@
       <c r="H9" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="15"/>
@@ -907,7 +917,9 @@
       <c r="H10" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="9"/>
       <c r="L10" s="15"/>
@@ -932,7 +944,9 @@
       <c r="H11" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="9"/>
       <c r="L11" s="15"/>
@@ -957,7 +971,9 @@
       <c r="H12" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="9"/>
       <c r="L12" s="15"/>
@@ -982,7 +998,9 @@
       <c r="H13" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="15"/>
@@ -1007,7 +1025,9 @@
       <c r="H14" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="15"/>
@@ -1032,7 +1052,9 @@
       <c r="H15" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="9"/>
       <c r="L15" s="15"/>
@@ -1057,7 +1079,9 @@
       <c r="H16" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="15"/>
@@ -1082,7 +1106,9 @@
       <c r="H17" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="15"/>
@@ -1107,7 +1133,9 @@
       <c r="H18" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="9"/>
       <c r="L18" s="15"/>
@@ -1132,7 +1160,9 @@
       <c r="H19" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="9"/>
       <c r="L19" s="15"/>
@@ -1157,7 +1187,9 @@
       <c r="H20" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="9"/>
       <c r="L20" s="15"/>
@@ -1182,7 +1214,9 @@
       <c r="H21" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="15"/>
@@ -1207,7 +1241,9 @@
       <c r="H22" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="9"/>
       <c r="L22" s="15"/>
@@ -1232,7 +1268,9 @@
       <c r="H23" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="13">
+        <v>42110.890972222223</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="15"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -671,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,8 +757,12 @@
       <c r="H4" s="13">
         <v>42110.854166666664</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="13">
+        <v>42137.375</v>
+      </c>
+      <c r="J4" s="13">
+        <v>42137.541666666664</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
+    <workbookView xWindow="16280" yWindow="2160" windowWidth="24440" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -201,6 +196,21 @@
   </si>
   <si>
     <t>Proyecto: análisis de las costumbres del ser humano</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Cambio ficha de profesor y estudiante / Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>OK / "Entregar a mano" por "Entregar por escrito" / Revisar Editor</t>
   </si>
 </sst>
 </file>
@@ -210,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +289,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -329,13 +357,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -361,9 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -379,16 +479,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="22" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,33 +810,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="18">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -728,50 +873,58 @@
         <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>42110.798611111109</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>42110.802083333336</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>42110.802083333336</v>
       </c>
-      <c r="H4" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I4" s="12">
         <v>42137.375</v>
       </c>
-      <c r="J4" s="13">
-        <v>42137.541666666664</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="J4" s="15">
+        <v>42137.568055555559</v>
+      </c>
+      <c r="K4" s="18">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -780,25 +933,28 @@
       <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I5" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I5" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -807,25 +963,32 @@
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I6" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I6" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J6" s="16">
+        <v>42143.651388888888</v>
+      </c>
+      <c r="K6" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -834,25 +997,32 @@
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I7" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I7" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J7" s="16">
+        <v>42143.651388888888</v>
+      </c>
+      <c r="K7" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -861,25 +1031,28 @@
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I8" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I8" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -888,25 +1061,32 @@
       <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I9" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I9" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J9" s="16">
+        <v>42143.651388888888</v>
+      </c>
+      <c r="K9" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -915,25 +1095,32 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I10" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I10" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J10" s="16">
+        <v>42143.651388888888</v>
+      </c>
+      <c r="K10" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -942,25 +1129,32 @@
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I11" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I11" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J11" s="16">
+        <v>42143.651388888888</v>
+      </c>
+      <c r="K11" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -969,25 +1163,28 @@
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I12" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I12" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -996,25 +1193,32 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I13" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I13" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J13" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K13" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1023,25 +1227,32 @@
       <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I14" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I14" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J14" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K14" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1050,25 +1261,28 @@
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I15" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I15" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="22"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1077,25 +1291,32 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I16" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I16" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J16" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K16" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1104,25 +1325,28 @@
       <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I17" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I17" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="22"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1131,25 +1355,32 @@
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I18" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I18" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J18" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K18" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1158,25 +1389,32 @@
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I19" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I19" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J19" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K19" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="22"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="24">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1185,25 +1423,32 @@
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I20" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I20" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J20" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K20" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1212,25 +1457,32 @@
       <c r="D21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I21" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I21" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J21" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K21" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="22"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1239,25 +1491,32 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I22" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I22" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J22" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K22" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="22"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1266,25 +1525,32 @@
       <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13">
-        <v>42110.854166666664</v>
-      </c>
-      <c r="I23" s="13">
-        <v>42110.890972222223</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12">
+        <v>42110.854166666664</v>
+      </c>
+      <c r="I23" s="12">
+        <v>42110.890972222223</v>
+      </c>
+      <c r="J23" s="16">
+        <v>42144.375</v>
+      </c>
+      <c r="K23" s="19">
+        <v>42144.568055555559</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L4:L23"/>
     <mergeCell ref="M4:M23"/>
+    <mergeCell ref="N4:N23"/>
     <mergeCell ref="E4:E23"/>
     <mergeCell ref="F4:F23"/>
     <mergeCell ref="G4:G23"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="2160" windowWidth="24440" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,10 @@
     <t>OK</t>
   </si>
   <si>
-    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
-  </si>
-  <si>
-    <t>OK / "Entregar a mano" por "Entregar por escrito" / Revisar Editor</t>
+    <t>"Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>"Entregar a mano" por "Entregar por escrito" / Revisar Editor (Contexto Colombia)</t>
   </si>
 </sst>
 </file>
@@ -476,40 +476,40 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="22" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -802,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -814,7 +814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L23" sqref="L23"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -885,21 +885,21 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="24">
         <v>42110.798611111109</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="24">
         <v>42110.802083333336</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="24">
         <v>42110.802083333336</v>
       </c>
       <c r="H4" s="12">
@@ -908,17 +908,17 @@
       <c r="I4" s="12">
         <v>42137.375</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>42137.568055555559</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>42144.568055555559</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>60</v>
       </c>
       <c r="M4" s="21"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="9" t="s">
@@ -933,22 +933,22 @@
       <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I5" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="24" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M5" s="22"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
@@ -963,26 +963,26 @@
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I6" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M6" s="22"/>
-      <c r="N6" s="14"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
@@ -997,26 +997,26 @@
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I7" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="14"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="9" t="s">
@@ -1031,22 +1031,22 @@
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I8" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="24" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M8" s="22"/>
-      <c r="N8" s="14"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="9" t="s">
@@ -1061,26 +1061,26 @@
       <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I9" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="14"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
@@ -1095,26 +1095,26 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I10" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M10" s="22"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="9" t="s">
@@ -1129,26 +1129,26 @@
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I11" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="14"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
@@ -1163,22 +1163,22 @@
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I12" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="24" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="22"/>
-      <c r="N12" s="14"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="9" t="s">
@@ -1193,26 +1193,26 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I13" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="22"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="9" t="s">
@@ -1227,26 +1227,26 @@
       <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I14" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="19" t="s">
         <v>61</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="14"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="9" t="s">
@@ -1261,22 +1261,22 @@
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I15" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="24" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M15" s="22"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
@@ -1291,26 +1291,26 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I16" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M16" s="22"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
@@ -1325,22 +1325,22 @@
       <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I17" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="24" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M17" s="22"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
@@ -1355,26 +1355,26 @@
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I18" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M18" s="22"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
@@ -1389,26 +1389,26 @@
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I19" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="19" t="s">
         <v>62</v>
       </c>
       <c r="M19" s="22"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="24">
       <c r="A20" s="9" t="s">
@@ -1423,26 +1423,26 @@
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I20" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="19" t="s">
         <v>61</v>
       </c>
       <c r="M20" s="22"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
@@ -1457,26 +1457,26 @@
       <c r="D21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I21" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="19" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="22"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
@@ -1491,26 +1491,26 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I22" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M22" s="22"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
@@ -1525,26 +1525,26 @@
       <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I23" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="17">
         <v>42144.568055555559</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>"Entregar a mano" por "Entregar por escrito" / Revisar Editor (Contexto Colombia)</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino</t>
   </si>
 </sst>
 </file>
@@ -415,8 +418,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -511,7 +526,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="33">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -522,6 +537,12 @@
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -532,6 +553,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -814,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L24" sqref="L24"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -942,10 +969,14 @@
       <c r="I5" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="16">
+        <v>42152.384722222225</v>
+      </c>
+      <c r="K5" s="16">
+        <v>42152.384722222225</v>
+      </c>
       <c r="L5" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="24"/>
@@ -1040,10 +1071,14 @@
       <c r="I8" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="16"/>
+      <c r="J8" s="16">
+        <v>42152.392361111109</v>
+      </c>
+      <c r="K8" s="16">
+        <v>42152.392361111109</v>
+      </c>
       <c r="L8" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="24"/>
@@ -1172,10 +1207,14 @@
       <c r="I12" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="16">
+        <v>42152.392361111109</v>
+      </c>
+      <c r="K12" s="16">
+        <v>42152.392361111109</v>
+      </c>
       <c r="L12" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="24"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Cambio ficha de profesor y estudiante / Cambio video audio latino</t>
   </si>
   <si>
     <t>OK</t>
@@ -337,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,39 +383,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,8 +418,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,36 +471,21 @@
     <xf numFmtId="22" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="41">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -543,6 +502,10 @@
     <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -559,6 +522,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,7 +808,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -912,21 +879,21 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>42110.798611111109</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="19">
         <v>42110.802083333336</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="19">
         <v>42110.802083333336</v>
       </c>
       <c r="H4" s="12">
@@ -938,14 +905,16 @@
       <c r="J4" s="13">
         <v>42137.568055555559</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>42144.568055555559</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="M4" s="19">
+        <v>42152.583333333336</v>
+      </c>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="9" t="s">
@@ -960,26 +929,26 @@
       <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I5" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>42152.384722222225</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>42152.384722222225</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="24"/>
+      <c r="L5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
@@ -994,9 +963,9 @@
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1006,14 +975,14 @@
       <c r="J6" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="24"/>
+      <c r="L6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
@@ -1028,9 +997,9 @@
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1040,14 +1009,14 @@
       <c r="J7" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="24"/>
+      <c r="L7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="9" t="s">
@@ -1062,26 +1031,26 @@
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I8" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>42152.392361111109</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>42152.392361111109</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24"/>
+      <c r="L8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="9" t="s">
@@ -1096,9 +1065,9 @@
       <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1108,14 +1077,14 @@
       <c r="J9" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="24"/>
+      <c r="L9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
@@ -1130,9 +1099,9 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1142,14 +1111,14 @@
       <c r="J10" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="24"/>
+      <c r="L10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="9" t="s">
@@ -1164,9 +1133,9 @@
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1176,14 +1145,14 @@
       <c r="J11" s="14">
         <v>42143.651388888888</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="24"/>
+      <c r="L11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
@@ -1198,26 +1167,26 @@
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I12" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>42152.392361111109</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>42152.392361111109</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="24"/>
+      <c r="L12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="9" t="s">
@@ -1232,9 +1201,9 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1244,14 +1213,14 @@
       <c r="J13" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="24"/>
+      <c r="L13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="9" t="s">
@@ -1266,9 +1235,9 @@
       <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1278,14 +1247,14 @@
       <c r="J14" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="24"/>
+      <c r="L14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="9" t="s">
@@ -1300,22 +1269,26 @@
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I15" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="24"/>
+      <c r="J15" s="15">
+        <v>42152.550694444442</v>
+      </c>
+      <c r="K15" s="15">
+        <v>42152.550694444442</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
@@ -1330,9 +1303,9 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1342,14 +1315,14 @@
       <c r="J16" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="24"/>
+      <c r="L16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
@@ -1364,22 +1337,26 @@
       <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="12">
         <v>42110.854166666664</v>
       </c>
       <c r="I17" s="12">
         <v>42110.890972222223</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="24"/>
+      <c r="J17" s="15">
+        <v>42152.572916666664</v>
+      </c>
+      <c r="K17" s="15">
+        <v>42152.572916666664</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
@@ -1394,9 +1371,9 @@
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1406,14 +1383,14 @@
       <c r="J18" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="24"/>
+      <c r="L18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
@@ -1428,9 +1405,9 @@
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1440,14 +1417,14 @@
       <c r="J19" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="24"/>
+      <c r="L19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14" ht="24">
       <c r="A20" s="9" t="s">
@@ -1462,9 +1439,9 @@
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1474,14 +1451,14 @@
       <c r="J20" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="24"/>
+      <c r="L20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
@@ -1496,9 +1473,9 @@
       <c r="D21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1508,14 +1485,14 @@
       <c r="J21" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="24"/>
+      <c r="L21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
@@ -1530,9 +1507,9 @@
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1542,14 +1519,14 @@
       <c r="J22" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="24"/>
+      <c r="L22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
@@ -1564,9 +1541,9 @@
       <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="12">
         <v>42110.854166666664</v>
       </c>
@@ -1576,14 +1553,14 @@
       <c r="J23" s="14">
         <v>42144.375</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="16">
         <v>42144.568055555559</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
+      <c r="L23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_06_02_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino / Cambiar PDF</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,7 +811,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4:N23"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -945,7 +948,7 @@
         <v>42152.384722222225</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
